--- a/fsh/scripts/plan-net-server.xlsx
+++ b/fsh/scripts/plan-net-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git-alt/MyNotebooks/CapStatement/temp_source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D50BCB-974E-1641-AB48-E128AE7EDBC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4119454C-5CF9-274A-89A8-E277AAA53797}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="2020" windowWidth="53120" windowHeight="25180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="2020" windowWidth="53120" windowHeight="25180" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$77</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="240">
   <si>
     <t>Element</t>
   </si>
@@ -639,9 +639,6 @@
   </si>
   <si>
     <t>practitioner</t>
-  </si>
-  <si>
-    <t>insurancePlan</t>
   </si>
   <si>
     <t xml:space="preserve">Practitioner </t>
@@ -836,9 +833,6 @@
   </si>
   <si>
     <t>This Section describes the expected capabilities of the Plan-Net Server actor which is responsible for providing responses to the queries submitted by the Plan-Net Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by Plan-Net Servers are defined. Systems implementing this capability statement should meet the CMS FInal Rule requirement for provider directory access.  Plan-Net  Clients can use the required capabilities to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>Organization.type</t>
   </si>
   <si>
     <t>Organization:partof,Organization:endpoint,Organization:coverage-area</t>
@@ -860,6 +854,9 @@
 The Plan-Net  Server **SHOULD**:
 1. Support xml source formats for all Plan-Net  interactions.
 </t>
+  </si>
+  <si>
+    <t>identifier</t>
   </si>
 </sst>
 </file>
@@ -1447,101 +1444,101 @@
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>199</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2838,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2866,10 +2863,10 @@
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2885,7 +2882,7 @@
         <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2893,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2901,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -2917,7 +2914,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2925,7 +2922,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3259,7 @@
         <v>13</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V2" s="26"/>
       <c r="W2" s="26"/>
@@ -3282,10 +3279,10 @@
         <v>13</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W3" s="26"/>
     </row>
@@ -3303,7 +3300,7 @@
         <v>13</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V4" s="26"/>
       <c r="W4" s="26"/>
@@ -3322,10 +3319,10 @@
         <v>13</v>
       </c>
       <c r="T5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="W5" s="26"/>
       <c r="X5"/>
@@ -3344,10 +3341,10 @@
         <v>13</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W6" s="26"/>
     </row>
@@ -3365,7 +3362,7 @@
         <v>13</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W7" s="26"/>
     </row>
@@ -3383,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W8" s="26"/>
     </row>
@@ -3401,7 +3398,7 @@
         <v>13</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W9" s="26"/>
     </row>
@@ -3551,7 +3548,7 @@
         <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>168</v>
@@ -3560,7 +3557,7 @@
         <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>116</v>
@@ -3817,11 +3814,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G35" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58:J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4365,7 +4362,7 @@
         <v>73</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" ref="J10:J57" si="7">B10&amp;"."&amp;C10</f>
+        <f t="shared" ref="J10:J73" si="7">B10&amp;"."&amp;C10</f>
         <v>HealthcareService.location</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -4404,7 +4401,7 @@
         <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -4519,7 +4516,7 @@
         <v>162</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -4575,7 +4572,7 @@
         <v>163</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
@@ -4631,7 +4628,7 @@
         <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
@@ -4688,7 +4685,7 @@
         <v>163</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
@@ -4741,10 +4738,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>13</v>
@@ -4801,7 +4798,7 @@
         <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
@@ -4912,7 +4909,7 @@
         <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>13</v>
@@ -4965,10 +4962,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
@@ -5024,7 +5021,7 @@
         <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>13</v>
@@ -5079,10 +5076,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>13</v>
@@ -5138,7 +5135,7 @@
         <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
@@ -5194,7 +5191,7 @@
         <v>164</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -5249,7 +5246,7 @@
         <v>164</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>13</v>
@@ -5361,7 +5358,7 @@
         <v>164</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -5473,7 +5470,7 @@
         <v>164</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -5700,7 +5697,7 @@
         <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>13</v>
@@ -5813,7 +5810,7 @@
         <v>107</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -5918,7 +5915,7 @@
         <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>13</v>
@@ -5967,7 +5964,7 @@
         <v>162</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -6016,7 +6013,7 @@
         <v>162</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
@@ -6114,7 +6111,7 @@
         <v>163</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>13</v>
@@ -6154,16 +6151,16 @@
         <v>SearchParameter-plan-net-insuranceplan-plan-type.html</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <f t="shared" si="10"/>
-        <v>35</v>
+    <row r="43" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="e">
+        <f>#REF!+1</f>
+        <v>#REF!</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>13</v>
@@ -6172,7 +6169,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="F43" si="33">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B43)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-insuranceplan</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -6185,8 +6182,8 @@
         <v>60</v>
       </c>
       <c r="J43" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>insurancePlan.type</v>
+        <f t="shared" ref="J43" si="34">B43&amp;"."&amp;C43</f>
+        <v>InsurancePlan.identifier</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>59</v>
@@ -6194,25 +6191,23 @@
       <c r="M43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y43" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>Support searching for a InsurancePlan by its type</v>
-      </c>
+      <c r="Y43" s="23"/>
+      <c r="AA43" s="2"/>
       <c r="AB43" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>SearchParameter-plan-net-insuranceplan-type.html</v>
+        <v>SearchParameter-plan-net-insuranceplan-identifier.html</v>
       </c>
     </row>
     <row r="44" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>36</v>
+        <v>#REF!</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>13</v>
@@ -6243,9 +6238,9 @@
       <c r="M44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y44" s="23" t="str">
-        <f t="shared" si="32"/>
-        <v>Support searching for a insurancePlan by its address-city</v>
+      <c r="Y44" s="23" t="e">
+        <f>"Support searching for a " &amp;#REF! &amp;" by its " &amp; C44</f>
+        <v>#REF!</v>
       </c>
       <c r="AB44" s="1" t="str">
         <f t="shared" si="9"/>
@@ -6253,15 +6248,15 @@
       </c>
     </row>
     <row r="45" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>37</v>
+        <v>#REF!</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>13</v>
@@ -6270,7 +6265,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="17" t="str">
-        <f t="shared" ref="F45:F46" si="33">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B45)</f>
+        <f t="shared" ref="F45:F46" si="35">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B45)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6283,7 +6278,7 @@
         <v>63</v>
       </c>
       <c r="J45" s="1" t="str">
-        <f t="shared" ref="J45:J46" si="34">B45&amp;"."&amp;C45</f>
+        <f t="shared" ref="J45:J46" si="36">B45&amp;"."&amp;C45</f>
         <v>Location.address-state</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -6293,25 +6288,25 @@
         <v>59</v>
       </c>
       <c r="Y45" s="23" t="str">
-        <f t="shared" ref="Y45:Y46" si="35">"Support searching for a "&amp; B44 &amp;" by its " &amp; C45</f>
+        <f t="shared" ref="Y45:Y46" si="37">"Support searching for a "&amp; B44 &amp;" by its " &amp; C45</f>
         <v>Support searching for a Location by its address-state</v>
       </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="1" t="str">
-        <f t="shared" ref="AB45:AB46" si="36">"SearchParameter-plan-net-"&amp;LOWER((B45)&amp;"-"&amp;C45&amp;".html")</f>
+        <f t="shared" ref="AB45:AB46" si="38">"SearchParameter-plan-net-"&amp;LOWER((B45)&amp;"-"&amp;C45&amp;".html")</f>
         <v>SearchParameter-plan-net-location-address-state.html</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>38</v>
+        <v>#REF!</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>13</v>
@@ -6320,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="17" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -6333,7 +6328,7 @@
         <v>63</v>
       </c>
       <c r="J46" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>Location.address-postalcode</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -6343,19 +6338,19 @@
         <v>59</v>
       </c>
       <c r="Y46" s="23" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>Support searching for a Location by its address-postalcode</v>
       </c>
       <c r="AA46" s="2"/>
       <c r="AB46" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>SearchParameter-plan-net-location-address-postalcode.html</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>#REF!</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>104</v>
@@ -6370,7 +6365,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="17" t="str">
-        <f t="shared" ref="F47" si="37">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B47)</f>
+        <f t="shared" ref="F47" si="39">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B47)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -6383,7 +6378,7 @@
         <v>63</v>
       </c>
       <c r="J47" s="1" t="str">
-        <f t="shared" ref="J47" si="38">B47&amp;"."&amp;C47</f>
+        <f t="shared" ref="J47" si="40">B47&amp;"."&amp;C47</f>
         <v>Location.address</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -6393,19 +6388,19 @@
         <v>59</v>
       </c>
       <c r="Y47" s="23" t="str">
-        <f t="shared" ref="Y47" si="39">"Support searching for a "&amp; B46 &amp;" by its " &amp; C47</f>
+        <f t="shared" ref="Y47" si="41">"Support searching for a "&amp; B46 &amp;" by its " &amp; C47</f>
         <v>Support searching for a Location by its address</v>
       </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="1" t="str">
-        <f t="shared" ref="AB47" si="40">"SearchParameter-plan-net-"&amp;LOWER((B47)&amp;"-"&amp;C47&amp;".html")</f>
+        <f t="shared" ref="AB47" si="42">"SearchParameter-plan-net-"&amp;LOWER((B47)&amp;"-"&amp;C47&amp;".html")</f>
         <v>SearchParameter-plan-net-location-address.html</v>
       </c>
     </row>
     <row r="48" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="1" t="e">
         <f>A44+1</f>
-        <v>37</v>
+        <v>#REF!</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>104</v>
@@ -6420,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="F48" s="17" t="str">
-        <f t="shared" ref="F48" si="41">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B48)</f>
+        <f t="shared" ref="F48" si="43">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B48)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -6433,7 +6428,7 @@
         <v>60</v>
       </c>
       <c r="J48" s="1" t="str">
-        <f t="shared" ref="J48" si="42">B48&amp;"."&amp;C48</f>
+        <f t="shared" ref="J48" si="44">B48&amp;"."&amp;C48</f>
         <v>Location.type</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -6443,19 +6438,19 @@
         <v>59</v>
       </c>
       <c r="Y48" s="23" t="str">
-        <f t="shared" ref="Y48" si="43">"Support searching for a "&amp; B44 &amp;" by its " &amp; C48</f>
+        <f t="shared" ref="Y48" si="45">"Support searching for a "&amp; B44 &amp;" by its " &amp; C48</f>
         <v>Support searching for a Location by its type</v>
       </c>
       <c r="AA48" s="2"/>
       <c r="AB48" s="1" t="str">
-        <f t="shared" ref="AB48" si="44">"SearchParameter-plan-net-"&amp;LOWER((B48)&amp;"-"&amp;C48&amp;".html")</f>
+        <f t="shared" ref="AB48" si="46">"SearchParameter-plan-net-"&amp;LOWER((B48)&amp;"-"&amp;C48&amp;".html")</f>
         <v>SearchParameter-plan-net-location-type.html</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <f t="shared" ref="A49" si="45">A48+1</f>
-        <v>38</v>
+      <c r="A49" s="1" t="e">
+        <f t="shared" ref="A49" si="47">A48+1</f>
+        <v>#REF!</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>105</v>
@@ -6502,9 +6497,9 @@
       </c>
     </row>
     <row r="50" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>39</v>
+        <v>#REF!</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>105</v>
@@ -6551,15 +6546,15 @@
       </c>
     </row>
     <row r="51" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>40</v>
+        <v>#REF!</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>13</v>
@@ -6600,15 +6595,15 @@
       </c>
     </row>
     <row r="52" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>41</v>
+        <v>#REF!</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>13</v>
@@ -6649,12 +6644,12 @@
       </c>
     </row>
     <row r="53" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>#REF!</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>67</v>
@@ -6698,12 +6693,12 @@
       </c>
     </row>
     <row r="54" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>43</v>
+        <v>#REF!</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>68</v>
@@ -6747,9 +6742,9 @@
       </c>
     </row>
     <row r="55" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>44</v>
+        <v>#REF!</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>106</v>
@@ -6796,15 +6791,15 @@
       </c>
     </row>
     <row r="56" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>45</v>
+        <v>#REF!</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>13</v>
@@ -6813,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="17" t="str">
-        <f t="shared" ref="F56:F59" si="46">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B56)</f>
+        <f t="shared" ref="F56:F59" si="48">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B56)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitionerrole</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -6845,15 +6840,15 @@
       </c>
     </row>
     <row r="57" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="1" t="e">
         <f t="shared" si="10"/>
-        <v>46</v>
+        <v>#REF!</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>13</v>
@@ -6862,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitionerrole</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -6894,15 +6889,15 @@
       </c>
     </row>
     <row r="58" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="1" t="e">
         <f>A57+1</f>
-        <v>47</v>
+        <v>#REF!</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>13</v>
@@ -6911,17 +6906,21 @@
         <v>1</v>
       </c>
       <c r="F58" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-endpoint</v>
       </c>
       <c r="G58" t="s">
         <v>59</v>
       </c>
       <c r="H58" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I58" t="s">
         <v>60</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Endpoint._id</v>
       </c>
       <c r="AB58" t="str">
         <f t="shared" si="9"/>
@@ -6929,15 +6928,15 @@
       </c>
     </row>
     <row r="59" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="1" t="e">
         <f>A58+1</f>
-        <v>48</v>
+        <v>#REF!</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>13</v>
@@ -6946,17 +6945,21 @@
         <v>1</v>
       </c>
       <c r="F59" s="17" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-endpoint</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Endpoint._lastUpdated</v>
       </c>
       <c r="AB59" t="str">
         <f t="shared" si="9"/>
@@ -6964,15 +6967,15 @@
       </c>
     </row>
     <row r="60" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <f t="shared" ref="A60:A78" si="47">A59+1</f>
-        <v>49</v>
+      <c r="A60" s="1" t="e">
+        <f t="shared" ref="A60:A78" si="49">A59+1</f>
+        <v>#REF!</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>13</v>
@@ -6981,34 +6984,38 @@
         <v>1</v>
       </c>
       <c r="F60" s="17" t="str">
-        <f t="shared" ref="F60:F73" si="48">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B60)</f>
+        <f t="shared" ref="F60:F73" si="50">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B60)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-insuranceplan</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="J60" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>InsurancePlan._id</v>
+      </c>
       <c r="AA60" s="2"/>
       <c r="AB60" s="1" t="str">
-        <f t="shared" ref="AB60:AB73" si="49">"SearchParameter-plan-net-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
+        <f t="shared" ref="AB60:AB73" si="51">"SearchParameter-plan-net-"&amp;LOWER((B60)&amp;"-"&amp;C60&amp;".html")</f>
         <v>SearchParameter-plan-net-insuranceplan-_id.html</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <f t="shared" si="47"/>
-        <v>50</v>
+      <c r="A61" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>13</v>
@@ -7017,34 +7024,38 @@
         <v>1</v>
       </c>
       <c r="F61" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-insuranceplan</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J61" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>InsurancePlan._lastUpdated</v>
+      </c>
       <c r="AA61" s="2"/>
       <c r="AB61" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-insuranceplan-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-insuranceplan-_lastupdated.html</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <f t="shared" si="47"/>
-        <v>51</v>
+        <v>#REF!</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>13</v>
@@ -7053,34 +7064,38 @@
         <v>1</v>
       </c>
       <c r="F62" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-healthcareservice</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="J62" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>HealthcareService._id</v>
+      </c>
       <c r="AA62" s="2"/>
       <c r="AB62" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-healthcareservice-_id.html</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-healthcareservice-_id.html</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <f t="shared" si="47"/>
-        <v>52</v>
+        <v>#REF!</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>13</v>
@@ -7089,34 +7104,38 @@
         <v>1</v>
       </c>
       <c r="F63" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-healthcareservice</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J63" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>HealthcareService._lastUpdated</v>
+      </c>
       <c r="AA63" s="2"/>
       <c r="AB63" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-healthcareservice-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-healthcareservice-_lastupdated.html</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <f t="shared" si="47"/>
-        <v>53</v>
+        <v>#REF!</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>13</v>
@@ -7125,34 +7144,38 @@
         <v>1</v>
       </c>
       <c r="F64" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="J64" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Location._id</v>
+      </c>
       <c r="AA64" s="2"/>
       <c r="AB64" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-location-_id.html</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-location-_id.html</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <f t="shared" si="47"/>
-        <v>54</v>
+        <v>#REF!</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>13</v>
@@ -7161,34 +7184,38 @@
         <v>1</v>
       </c>
       <c r="F65" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-location</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J65" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Location._lastUpdated</v>
+      </c>
       <c r="AA65" s="2"/>
       <c r="AB65" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-location-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-location-_lastupdated.html</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <f t="shared" si="47"/>
-        <v>55</v>
+        <v>#REF!</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>13</v>
@@ -7197,34 +7224,38 @@
         <v>1</v>
       </c>
       <c r="F66" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="J66" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Organization._id</v>
+      </c>
       <c r="AA66" s="2"/>
       <c r="AB66" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-organization-_id.html</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-organization-_id.html</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <f t="shared" si="47"/>
-        <v>56</v>
+        <v>#REF!</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>13</v>
@@ -7233,34 +7264,38 @@
         <v>1</v>
       </c>
       <c r="F67" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J67" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Organization._lastUpdated</v>
+      </c>
       <c r="AA67" s="2"/>
       <c r="AB67" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-organization-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-organization-_lastupdated.html</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <f t="shared" si="47"/>
-        <v>57</v>
+        <v>#REF!</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>13</v>
@@ -7269,34 +7304,38 @@
         <v>1</v>
       </c>
       <c r="F68" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organizationaffiliation</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="J68" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>OrganizationAffiliation._id</v>
+      </c>
       <c r="AA68" s="2"/>
       <c r="AB68" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-organizationaffiliation-_id.html</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-organizationaffiliation-_id.html</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <f t="shared" si="47"/>
-        <v>58</v>
+        <v>#REF!</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>13</v>
@@ -7305,34 +7344,38 @@
         <v>1</v>
       </c>
       <c r="F69" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organizationaffiliation</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J69" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>OrganizationAffiliation._lastUpdated</v>
+      </c>
       <c r="AA69" s="2"/>
       <c r="AB69" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-organizationaffiliation-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-organizationaffiliation-_lastupdated.html</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <f t="shared" si="47"/>
-        <v>59</v>
+        <v>#REF!</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>13</v>
@@ -7341,34 +7384,38 @@
         <v>1</v>
       </c>
       <c r="F70" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="J70" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Practitioner._id</v>
+      </c>
       <c r="AA70" s="2"/>
       <c r="AB70" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-practitioner-_id.html</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-practitioner-_id.html</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <f t="shared" si="47"/>
-        <v>60</v>
+        <v>#REF!</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>13</v>
@@ -7377,34 +7424,38 @@
         <v>1</v>
       </c>
       <c r="F71" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J71" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Practitioner._lastUpdated</v>
+      </c>
       <c r="AA71" s="2"/>
       <c r="AB71" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-practitioner-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-practitioner-_lastupdated.html</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
-        <f t="shared" si="47"/>
-        <v>61</v>
+        <v>#REF!</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>13</v>
@@ -7413,34 +7464,38 @@
         <v>1</v>
       </c>
       <c r="F72" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitionerrole</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="J72" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PractitionerRole._id</v>
+      </c>
       <c r="AA72" s="2"/>
       <c r="AB72" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-practitionerrole-_id.html</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-practitionerrole-_id.html</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
-        <f t="shared" si="47"/>
-        <v>62</v>
+        <v>#REF!</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>13</v>
@@ -7449,28 +7504,32 @@
         <v>1</v>
       </c>
       <c r="F73" s="17" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitionerrole</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="J73" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>PractitionerRole._lastUpdated</v>
+      </c>
       <c r="AA73" s="2"/>
       <c r="AB73" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>SearchParameter-plan-net-practitionerrole-_lastupdated.html</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="e">
         <f t="shared" si="49"/>
-        <v>SearchParameter-plan-net-practitionerrole-_lastupdated.html</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
-        <f t="shared" si="47"/>
-        <v>63</v>
+        <v>#REF!</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>105</v>
@@ -7485,7 +7544,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="17" t="str">
-        <f t="shared" ref="F74" si="50">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B74)</f>
+        <f t="shared" ref="F74" si="52">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B74)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -7497,8 +7556,9 @@
       <c r="I74" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>238</v>
+      <c r="J74" s="1" t="str">
+        <f t="shared" ref="J74:J78" si="53">B74&amp;"."&amp;C74</f>
+        <v>Organization.type</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>59</v>
@@ -7511,14 +7571,14 @@
       </c>
       <c r="AA74" s="2"/>
       <c r="AB74" s="1" t="str">
-        <f t="shared" ref="AB74" si="51">"SearchParameter-plan-net-"&amp;LOWER((B74)&amp;"-"&amp;C74&amp;".html")</f>
+        <f t="shared" ref="AB74" si="54">"SearchParameter-plan-net-"&amp;LOWER((B74)&amp;"-"&amp;C74&amp;".html")</f>
         <v>SearchParameter-plan-net-organization-type.html</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <f t="shared" si="47"/>
-        <v>64</v>
+      <c r="A75" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>163</v>
@@ -7533,7 +7593,7 @@
         <v>1</v>
       </c>
       <c r="F75" s="17" t="str">
-        <f t="shared" ref="F75:F78" si="52">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B75)</f>
+        <f t="shared" ref="F75:F78" si="55">"http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-"&amp;LOWER(B75)</f>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-insuranceplan</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -7545,8 +7605,9 @@
       <c r="I75" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>238</v>
+      <c r="J75" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>InsurancePlan.type</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>59</v>
@@ -7559,14 +7620,14 @@
       </c>
       <c r="AA75" s="2"/>
       <c r="AB75" s="1" t="str">
-        <f t="shared" ref="AB75:AB78" si="53">"SearchParameter-plan-net-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
+        <f t="shared" ref="AB75:AB78" si="56">"SearchParameter-plan-net-"&amp;LOWER((B75)&amp;"-"&amp;C75&amp;".html")</f>
         <v>SearchParameter-plan-net-insuranceplan-type.html</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <f t="shared" si="47"/>
-        <v>65</v>
+      <c r="A76" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>106</v>
@@ -7581,7 +7642,7 @@
         <v>1</v>
       </c>
       <c r="F76" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -7593,8 +7654,9 @@
       <c r="I76" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J76" s="1" t="s">
-        <v>238</v>
+      <c r="J76" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>Practitioner.family</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>59</v>
@@ -7607,14 +7669,14 @@
       </c>
       <c r="AA76" s="2"/>
       <c r="AB76" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>SearchParameter-plan-net-practitioner-family.html</v>
       </c>
     </row>
     <row r="77" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <f t="shared" si="47"/>
-        <v>66</v>
+      <c r="A77" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>106</v>
@@ -7629,7 +7691,7 @@
         <v>1</v>
       </c>
       <c r="F77" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-practitioner</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -7641,8 +7703,9 @@
       <c r="I77" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>238</v>
+      <c r="J77" s="1" t="str">
+        <f t="shared" si="53"/>
+        <v>Practitioner.given</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>59</v>
@@ -7655,20 +7718,20 @@
       </c>
       <c r="AA77" s="2"/>
       <c r="AB77" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>SearchParameter-plan-net-practitioner-given.html</v>
       </c>
     </row>
     <row r="78" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
-        <f t="shared" si="47"/>
-        <v>67</v>
+      <c r="A78" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#REF!</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
@@ -7677,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="F78" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-organization</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -7690,7 +7753,7 @@
         <v>73</v>
       </c>
       <c r="J78" s="1" t="str">
-        <f t="shared" ref="J78" si="54">B78&amp;"."&amp;C78</f>
+        <f t="shared" si="53"/>
         <v>Organization.coverage-area</v>
       </c>
       <c r="K78" s="1" t="s">
@@ -7706,12 +7769,12 @@
         <v>13</v>
       </c>
       <c r="Y78" s="23" t="str">
-        <f t="shared" ref="Y78" si="55">"Support searching for a "&amp; B77 &amp;" by its " &amp; C78</f>
+        <f t="shared" ref="Y78" si="57">"Support searching for a "&amp; B77 &amp;" by its " &amp; C78</f>
         <v>Support searching for a Practitioner by its coverage-area</v>
       </c>
       <c r="AA78" s="10"/>
       <c r="AB78" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>SearchParameter-plan-net-organization-coverage-area.html</v>
       </c>
     </row>
@@ -7728,7 +7791,7 @@
       <c r="AA81" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB57" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
+  <autoFilter ref="A1:AB78" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:AA28">
     <sortCondition ref="B1"/>
   </sortState>
